--- a/Testing/book1.results.xlsx
+++ b/Testing/book1.results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>count the states which have elevations lower than what alabama has Reply like you are interacting with a human</t>
+          <t>count the states which have elevations lower than what alabama has</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,22 +481,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SELECT COUNT(*) FROM highlow WHERE CAST(lowest_elevation AS INTEGER) &lt; (SELECT CAST(lowest_elevation AS INTEGER) FROM highlow WHERE state_name = "alabama")</t>
+          <t>SELECT COUNT(*) FROM highlow WHERE CAST(lowest_elevation AS INTEGER) &lt; (SELECT CAST(lowest_elevation AS INTEGER) FROM highlow WHERE state_name = 'alabama')</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(2,)</t>
+          <t>[(2,)]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(2,)</t>
+          <t>[(2,)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>There are 2 states with elevations lower than Alabama.</t>
+          <t xml:space="preserve">The above query is counting the number of records in the "highlow" table where the value in the "lowest_elevation" column is less than the lowest elevation value in Alabama. It returns a single row with the count of those records. </t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>give me the number of rivers in california Reply like you are interacting with a human</t>
+          <t>give me the number of rivers in california</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,17 +521,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(1,)</t>
+          <t>[(1,)]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(1,)</t>
+          <t>[(1,)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>There is 1 river in California.</t>
+          <t>The query is counting the number of rows in the "river" table where the "traverse" column has a value of "california". The result of the query is a single row with the count of matching rows, indicated by the value of 1.</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>give me the states that border utah Reply like you are interacting with a human</t>
+          <t>give me the states that border utah</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,22 +551,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SELECT state_name FROM border_info WHERE border = 'utah' LIMIT 5</t>
+          <t>SELECT DISTINCT state_name FROM border_info WHERE border = 'utah'</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>('wyoming',)</t>
+          <t>[('wyoming',), ('colorado',), ('new mexico',), ('arizona',), ('nevada',), ('idaho',)]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>('wyoming',)</t>
+          <t>[('arizona',), ('colorado',), ('idaho',), ('nevada',), ('new mexico',), ('wyoming',)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Arizona, Colorado, Idaho, Nevada, New Mexico</t>
+          <t>The SELECT DISTINCT state_name query from the border_info table where border is 'utah' returns a list of states that border Utah, including Arizona, Colorado, Idaho, Nevada, New Mexico, and Wyoming.</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>how high is mount mckinley Reply like you are interacting with a human</t>
+          <t>how high is mount mckinley</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>('6194',)</t>
+          <t>[('6194',)]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>('6194',)</t>
+          <t>[(6194,)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>The altitude of Mount McKinley is 6194 meters.</t>
+          <t>The query is selecting the mountain_altitude from the mountain table where the mountain_name is "mckinley". The result of the query is a single value, which is 6194.</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>how high is the highest point in america Reply like you are interacting with a human</t>
+          <t>how high is the highest point in america</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,22 +621,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SELECT MAX(mountain_altitude) FROM mountain</t>
+          <t>SELECT MAX(mountain_altitude) AS "highest_point" FROM mountain</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>('979',)</t>
+          <t>[('979',)]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>('979',)</t>
+          <t>[(6194,)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>The highest point in America is 6194 meters.</t>
+          <t>This query returns the maximum (highest) value of the "mountain_altitude" column in the "mountain" table and aliases it as "highest_point". The result is a single value, 6194, indicating the highest altitude among all mountains in the table.</t>
         </is>
       </c>
     </row>
@@ -646,32 +646,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>how high is the highest point of alabama Reply like you are interacting with a human</t>
+          <t>how long is the longest river in california</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>select highlow.highest_elevation from highlow where highlow.state_name='alabama';</t>
+          <t>select river.length from river where river.traverse='california' and river.length=(select max(river.length) from river where river.traverse='california');</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SELECT "highest_point" FROM highlow WHERE state_name = "alabama"</t>
+          <t>SELECT MAX(length) FROM river WHERE country_name = 'usa' AND traverse = 'california'</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>('734',)</t>
+          <t>[(2333,)]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>('734',)</t>
+          <t>[(2333,)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>The highest point of Alabama is Cheaha Mountain, which has an altitude of 734 feet.</t>
+          <t>The query finds the maximum length of rivers in the USA that traverse California. The result is a single value of 2333.</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>how large is alaska Reply like you are interacting with a human</t>
+          <t>how long is the ohio river</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>select state.area from state where state.state_name='alaska';</t>
+          <t>select river.length from river where river.river_name='ohio';</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SELECT area FROM state WHERE state_name = "alaska"</t>
+          <t>SELECT length FROM river WHERE river_name = 'ohio'</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(591000.0,)</t>
+          <t>[(1569,), (1569,), (1569,), (1569,), (1569,), (1569,), (1569,)]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(591000.0,)</t>
+          <t>[(1569,), (1569,), (1569,), (1569,), (1569,), (1569,), (1569,)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alaska has an area of 591000.0 square miles.</t>
+          <t>The SELECT length FROM river WHERE river_name = 'ohio' query retrieves a list of the length of the Ohio river, which is approximately 1569 miles long. This query is executed seven times, resulting in a detailed list of [(1569,), (1569,), (1569,), (1569,), (1569,), (1569,), (1569,)].</t>
         </is>
       </c>
     </row>
@@ -716,409 +716,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>how large is texas Reply like you are interacting with a human</t>
+          <t>how many people lived in austin</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>select state.area from state where state.state_name='texas';</t>
+          <t>select city.population from city where city.city_name='austin';</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SELECT area FROM state WHERE state_name = "texas"</t>
+          <t>SELECT population FROM city WHERE city_name = "austin"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(266807.0,)</t>
+          <t>[(345496,)]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(266807.0,)</t>
+          <t>[(345496,)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Texas has an area of 266807 square kilometers.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>how long is the colorado river Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>select river.length from river where river.river_name='colorado';</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SELECT length FROM river WHERE river_name = "colorado" AND traverse = "usa"</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>(2333,)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>The Colorado River is approximately 1450 miles long.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>how long is the delaware river Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>select river.length from river where river.river_name='delaware';</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SELECT length FROM river WHERE river_name = "delaware" AND traverse = "pennsylvania"</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>(451,)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>(451,)</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>The Delaware River is 451 miles long.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>how long is the longest river in california Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>select river.length from river where river.traverse='california' and river.length=(select max(river.length) from river where river.traverse='california');</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>SELECT MAX(length) FROM river WHERE traverse = 'california'</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>(2333,)</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>(2333,)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>The longest river in California is 2333 miles long.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>how long is the longest river in the usa Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>select river.length from river where river.length=(select max(river.length) from river);</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>SELECT MAX(length) FROM river WHERE country_name = "usa"</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>(3968,)</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>(3968,)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>The longest river in the USA is the Mississippi River, with a length of 3968 miles.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>how long is the north platte river Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>select river.length from river where river.river_name='north platte';</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>SELECT length FROM river WHERE river_name = "north platte" LIMIT 5</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>(1094,)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>(1094,)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>The North Platte River is 1094 miles long.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>how long is the ohio river Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>select river.length from river where river.river_name='ohio';</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>SELECT length FROM river WHERE river_name = "ohio" AND traverse = "usa"</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>(1569,)</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>The Ohio River is approximately 981 miles long.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>how many capitals does rhode island have Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>select count(state.capital) from state where state.state_name='rhode island';</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SELECT COUNT(capital) FROM state WHERE state_name = "rhode island"</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>(1,)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>(1,)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Rhode Island has 1 capital.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>how many cities are there in the united states Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>select count(city.city_name) from city;</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SELECT COUNT(*) FROM city WHERE country_name = 'usa'</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>(386,)</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>(386,)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>There are 386 cities in the United States.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>how many citizens does the biggest city have in the usa Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>select city.population from city where city.population=(select max(city.population) from city);</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>SELECT MAX(population) FROM city WHERE country_name = "usa"</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>(7071639,)</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>(7071639,)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>The biggest city in the USA has 7,071,639 citizens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>how many colorado rivers are there Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>select count(river.river_name) from river where river.river_name='colorado';</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>SELECT COUNT(*) FROM river WHERE river_name LIKE '%colorado%'</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>(5,)</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>(5,)</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>There are 5 rivers in Colorado.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>how many people lived in austin Reply like you are interacting with a human</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>select city.population from city where city.city_name='austin';</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SELECT population FROM city WHERE city_name = "austin" LIMIT 5</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>(345496,)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>(345496,)</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>345496</t>
+          <t>The SELECT statement is used to retrieve specific data from a database. In this case, the data being retrieved is the population from the city table. The WHERE clause is used to specify a condition, in this case, the city_name being equal to "austin". The result of this query is a single row containing the population of Austin, which is 345496.</t>
         </is>
       </c>
     </row>
